--- a/idhPeru.xlsx
+++ b/idhPeru.xlsx
@@ -12,12 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="398">
   <si>
     <t xml:space="preserve">Ubigeo</t>
   </si>
   <si>
-    <t xml:space="preserve">Provincia</t>
+    <t xml:space="preserve">PROVINCIA</t>
   </si>
   <si>
     <t xml:space="preserve">habitantes</t>
@@ -119,7 +119,7 @@
     <t xml:space="preserve">020700</t>
   </si>
   <si>
-    <t xml:space="preserve">CARLOS FERMIN FITZCARRALD</t>
+    <t xml:space="preserve">CARLOS F. FITZCARRALD</t>
   </si>
   <si>
     <t xml:space="preserve">020800</t>
@@ -894,6 +894,12 @@
   </si>
   <si>
     <t xml:space="preserve">UCAYALI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">160700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DATEM DEL MARANON</t>
   </si>
   <si>
     <t xml:space="preserve">170100</t>
@@ -5283,22 +5289,22 @@
         <v>295</v>
       </c>
       <c r="C145" t="n">
-        <v>78523</v>
+        <v>49571</v>
       </c>
       <c r="D145" t="n">
-        <v>0.431513867738363</v>
+        <v>0.189648022362059</v>
       </c>
       <c r="E145" t="n">
-        <v>71.31</v>
+        <v>69.33</v>
       </c>
       <c r="F145" t="n">
-        <v>64.8599034491074</v>
+        <v>15.0020390700976</v>
       </c>
       <c r="G145" t="n">
-        <v>9.97944009448297</v>
+        <v>5.42698806401851</v>
       </c>
       <c r="H145" t="n">
-        <v>454.828483684052</v>
+        <v>151.254925027366</v>
       </c>
     </row>
     <row r="146">
@@ -5309,22 +5315,22 @@
         <v>297</v>
       </c>
       <c r="C146" t="n">
-        <v>20290</v>
+        <v>78523</v>
       </c>
       <c r="D146" t="n">
-        <v>0.359135376097782</v>
+        <v>0.431513867738363</v>
       </c>
       <c r="E146" t="n">
-        <v>71.13</v>
+        <v>71.31</v>
       </c>
       <c r="F146" t="n">
-        <v>51.123243514602</v>
+        <v>64.8599034491074</v>
       </c>
       <c r="G146" t="n">
-        <v>8.20154724849527</v>
+        <v>9.97944009448297</v>
       </c>
       <c r="H146" t="n">
-        <v>344.351178130766</v>
+        <v>454.828483684052</v>
       </c>
     </row>
     <row r="147">
@@ -5335,22 +5341,22 @@
         <v>299</v>
       </c>
       <c r="C147" t="n">
-        <v>10742</v>
+        <v>20290</v>
       </c>
       <c r="D147" t="n">
-        <v>0.417133845832127</v>
+        <v>0.359135376097782</v>
       </c>
       <c r="E147" t="n">
-        <v>76.67</v>
+        <v>71.13</v>
       </c>
       <c r="F147" t="n">
-        <v>57.4460010940749</v>
+        <v>51.123243514602</v>
       </c>
       <c r="G147" t="n">
-        <v>9.46824877467665</v>
+        <v>8.20154724849527</v>
       </c>
       <c r="H147" t="n">
-        <v>408.011460278951</v>
+        <v>344.351178130766</v>
       </c>
     </row>
     <row r="148">
@@ -5361,22 +5367,22 @@
         <v>301</v>
       </c>
       <c r="C148" t="n">
-        <v>72849</v>
+        <v>10742</v>
       </c>
       <c r="D148" t="n">
-        <v>0.4480169441787</v>
+        <v>0.417133845832127</v>
       </c>
       <c r="E148" t="n">
-        <v>75.63</v>
+        <v>76.67</v>
       </c>
       <c r="F148" t="n">
-        <v>79.2843288413679</v>
+        <v>57.4460010940749</v>
       </c>
       <c r="G148" t="n">
-        <v>9.93347030257841</v>
+        <v>9.46824877467665</v>
       </c>
       <c r="H148" t="n">
-        <v>424.812819703181</v>
+        <v>408.011460278951</v>
       </c>
     </row>
     <row r="149">
@@ -5387,22 +5393,22 @@
         <v>303</v>
       </c>
       <c r="C149" t="n">
-        <v>24904</v>
+        <v>72849</v>
       </c>
       <c r="D149" t="n">
-        <v>0.329998856623098</v>
+        <v>0.4480169441787</v>
       </c>
       <c r="E149" t="n">
-        <v>75.49</v>
+        <v>75.63</v>
       </c>
       <c r="F149" t="n">
-        <v>76.8953817870119</v>
+        <v>79.2843288413679</v>
       </c>
       <c r="G149" t="n">
-        <v>8.31012216663192</v>
+        <v>9.93347030257841</v>
       </c>
       <c r="H149" t="n">
-        <v>212.29626346771</v>
+        <v>424.812819703181</v>
       </c>
     </row>
     <row r="150">
@@ -5413,22 +5419,22 @@
         <v>305</v>
       </c>
       <c r="C150" t="n">
-        <v>63780</v>
+        <v>24904</v>
       </c>
       <c r="D150" t="n">
-        <v>0.48131326266048</v>
+        <v>0.329998856623098</v>
       </c>
       <c r="E150" t="n">
-        <v>74.44</v>
+        <v>75.49</v>
       </c>
       <c r="F150" t="n">
-        <v>81.9070096742736</v>
+        <v>76.8953817870119</v>
       </c>
       <c r="G150" t="n">
-        <v>11.0775015618052</v>
+        <v>8.31012216663192</v>
       </c>
       <c r="H150" t="n">
-        <v>490.975299632482</v>
+        <v>212.29626346771</v>
       </c>
     </row>
     <row r="151">
@@ -5439,22 +5445,22 @@
         <v>307</v>
       </c>
       <c r="C151" t="n">
-        <v>150717</v>
+        <v>63780</v>
       </c>
       <c r="D151" t="n">
-        <v>0.346992973189151</v>
+        <v>0.48131326266048</v>
       </c>
       <c r="E151" t="n">
-        <v>72.8</v>
+        <v>74.44</v>
       </c>
       <c r="F151" t="n">
-        <v>71.6275269555395</v>
+        <v>81.9070096742736</v>
       </c>
       <c r="G151" t="n">
-        <v>9.06947203978705</v>
+        <v>11.0775015618052</v>
       </c>
       <c r="H151" t="n">
-        <v>248.478959037521</v>
+        <v>490.975299632482</v>
       </c>
     </row>
     <row r="152">
@@ -5465,22 +5471,22 @@
         <v>309</v>
       </c>
       <c r="C152" t="n">
-        <v>47803</v>
+        <v>150717</v>
       </c>
       <c r="D152" t="n">
-        <v>0.271150395121825</v>
+        <v>0.346992973189151</v>
       </c>
       <c r="E152" t="n">
-        <v>69.93</v>
+        <v>72.8</v>
       </c>
       <c r="F152" t="n">
-        <v>74.9879307321224</v>
+        <v>71.6275269555395</v>
       </c>
       <c r="G152" t="n">
-        <v>7.29310457732677</v>
+        <v>9.06947203978705</v>
       </c>
       <c r="H152" t="n">
-        <v>156.843406952295</v>
+        <v>248.478959037521</v>
       </c>
     </row>
     <row r="153">
@@ -5491,22 +5497,22 @@
         <v>311</v>
       </c>
       <c r="C153" t="n">
-        <v>81929</v>
+        <v>47803</v>
       </c>
       <c r="D153" t="n">
-        <v>0.273068187010693</v>
+        <v>0.271150395121825</v>
       </c>
       <c r="E153" t="n">
-        <v>71.64</v>
+        <v>69.93</v>
       </c>
       <c r="F153" t="n">
-        <v>37.5627425484529</v>
+        <v>74.9879307321224</v>
       </c>
       <c r="G153" t="n">
-        <v>6.78423441660141</v>
+        <v>7.29310457732677</v>
       </c>
       <c r="H153" t="n">
-        <v>212.823538702762</v>
+        <v>156.843406952295</v>
       </c>
     </row>
     <row r="154">
@@ -5517,22 +5523,22 @@
         <v>313</v>
       </c>
       <c r="C154" t="n">
-        <v>665991</v>
+        <v>81929</v>
       </c>
       <c r="D154" t="n">
-        <v>0.389075363320965</v>
+        <v>0.273068187010693</v>
       </c>
       <c r="E154" t="n">
-        <v>72.92</v>
+        <v>71.64</v>
       </c>
       <c r="F154" t="n">
-        <v>62.8943236824941</v>
+        <v>37.5627425484529</v>
       </c>
       <c r="G154" t="n">
-        <v>8.81006492251657</v>
+        <v>6.78423441660141</v>
       </c>
       <c r="H154" t="n">
-        <v>361.234574623121</v>
+        <v>212.823538702762</v>
       </c>
     </row>
     <row r="155">
@@ -5543,22 +5549,22 @@
         <v>315</v>
       </c>
       <c r="C155" t="n">
-        <v>138403</v>
+        <v>665991</v>
       </c>
       <c r="D155" t="n">
-        <v>0.194729094566092</v>
+        <v>0.389075363320965</v>
       </c>
       <c r="E155" t="n">
-        <v>68.63</v>
+        <v>72.92</v>
       </c>
       <c r="F155" t="n">
-        <v>26.0855873919336</v>
+        <v>62.8943236824941</v>
       </c>
       <c r="G155" t="n">
-        <v>4.50709073435526</v>
+        <v>8.81006492251657</v>
       </c>
       <c r="H155" t="n">
-        <v>147.245244493632</v>
+        <v>361.234574623121</v>
       </c>
     </row>
     <row r="156">
@@ -5569,22 +5575,22 @@
         <v>317</v>
       </c>
       <c r="C156" t="n">
-        <v>124298</v>
+        <v>138403</v>
       </c>
       <c r="D156" t="n">
-        <v>0.199530812717982</v>
+        <v>0.194729094566092</v>
       </c>
       <c r="E156" t="n">
-        <v>66.8</v>
+        <v>68.63</v>
       </c>
       <c r="F156" t="n">
-        <v>28.1443680714742</v>
+        <v>26.0855873919336</v>
       </c>
       <c r="G156" t="n">
-        <v>4.43785948263037</v>
+        <v>4.50709073435526</v>
       </c>
       <c r="H156" t="n">
-        <v>157.926183825313</v>
+        <v>147.245244493632</v>
       </c>
     </row>
     <row r="157">
@@ -5595,22 +5601,22 @@
         <v>319</v>
       </c>
       <c r="C157" t="n">
-        <v>159693</v>
+        <v>124298</v>
       </c>
       <c r="D157" t="n">
-        <v>0.289142229229107</v>
+        <v>0.199530812717982</v>
       </c>
       <c r="E157" t="n">
-        <v>70.46</v>
+        <v>66.8</v>
       </c>
       <c r="F157" t="n">
-        <v>50.0916364254353</v>
+        <v>28.1443680714742</v>
       </c>
       <c r="G157" t="n">
-        <v>5.74593073928006</v>
+        <v>4.43785948263037</v>
       </c>
       <c r="H157" t="n">
-        <v>245.794925086151</v>
+        <v>157.926183825313</v>
       </c>
     </row>
     <row r="158">
@@ -5621,22 +5627,22 @@
         <v>321</v>
       </c>
       <c r="C158" t="n">
-        <v>108535</v>
+        <v>159693</v>
       </c>
       <c r="D158" t="n">
-        <v>0.386221670782376</v>
+        <v>0.289142229229107</v>
       </c>
       <c r="E158" t="n">
-        <v>73.54</v>
+        <v>70.46</v>
       </c>
       <c r="F158" t="n">
-        <v>58.7951699949772</v>
+        <v>50.0916364254353</v>
       </c>
       <c r="G158" t="n">
-        <v>7.78661079663957</v>
+        <v>5.74593073928006</v>
       </c>
       <c r="H158" t="n">
-        <v>387.582823659493</v>
+        <v>245.794925086151</v>
       </c>
     </row>
     <row r="159">
@@ -5647,22 +5653,22 @@
         <v>323</v>
       </c>
       <c r="C159" t="n">
-        <v>287680</v>
+        <v>108535</v>
       </c>
       <c r="D159" t="n">
-        <v>0.371643468444757</v>
+        <v>0.386221670782376</v>
       </c>
       <c r="E159" t="n">
-        <v>74.62</v>
+        <v>73.54</v>
       </c>
       <c r="F159" t="n">
-        <v>63.4614074933632</v>
+        <v>58.7951699949772</v>
       </c>
       <c r="G159" t="n">
-        <v>8.27104264851297</v>
+        <v>7.78661079663957</v>
       </c>
       <c r="H159" t="n">
-        <v>319.507106581188</v>
+        <v>387.582823659493</v>
       </c>
     </row>
     <row r="160">
@@ -5673,22 +5679,22 @@
         <v>325</v>
       </c>
       <c r="C160" t="n">
-        <v>129396</v>
+        <v>287680</v>
       </c>
       <c r="D160" t="n">
-        <v>0.417441879178433</v>
+        <v>0.371643468444757</v>
       </c>
       <c r="E160" t="n">
-        <v>73.36</v>
+        <v>74.62</v>
       </c>
       <c r="F160" t="n">
-        <v>65.5208019822911</v>
+        <v>63.4614074933632</v>
       </c>
       <c r="G160" t="n">
-        <v>9.80283179960784</v>
+        <v>8.27104264851297</v>
       </c>
       <c r="H160" t="n">
-        <v>401.102468790841</v>
+        <v>319.507106581188</v>
       </c>
     </row>
     <row r="161">
@@ -5699,22 +5705,22 @@
         <v>327</v>
       </c>
       <c r="C161" t="n">
-        <v>62319</v>
+        <v>129396</v>
       </c>
       <c r="D161" t="n">
-        <v>0.336294148272281</v>
+        <v>0.417441879178433</v>
       </c>
       <c r="E161" t="n">
-        <v>70.14</v>
+        <v>73.36</v>
       </c>
       <c r="F161" t="n">
-        <v>50.6605130620307</v>
+        <v>65.5208019822911</v>
       </c>
       <c r="G161" t="n">
-        <v>6.90907755071875</v>
+        <v>9.80283179960784</v>
       </c>
       <c r="H161" t="n">
-        <v>326.87888817645</v>
+        <v>401.102468790841</v>
       </c>
     </row>
     <row r="162">
@@ -5725,22 +5731,22 @@
         <v>329</v>
       </c>
       <c r="C162" t="n">
-        <v>229236</v>
+        <v>62319</v>
       </c>
       <c r="D162" t="n">
-        <v>0.345362246464462</v>
+        <v>0.336294148272281</v>
       </c>
       <c r="E162" t="n">
-        <v>67.92</v>
+        <v>70.14</v>
       </c>
       <c r="F162" t="n">
-        <v>73.9729717058929</v>
+        <v>50.6605130620307</v>
       </c>
       <c r="G162" t="n">
-        <v>8.8191994631141</v>
+        <v>6.90907755071875</v>
       </c>
       <c r="H162" t="n">
-        <v>269.745291404476</v>
+        <v>326.87888817645</v>
       </c>
     </row>
     <row r="163">
@@ -5751,22 +5757,22 @@
         <v>331</v>
       </c>
       <c r="C163" t="n">
-        <v>136829</v>
+        <v>229236</v>
       </c>
       <c r="D163" t="n">
-        <v>0.230921506797581</v>
+        <v>0.345362246464462</v>
       </c>
       <c r="E163" t="n">
-        <v>65.84</v>
+        <v>67.92</v>
       </c>
       <c r="F163" t="n">
-        <v>53.1629671006749</v>
+        <v>73.9729717058929</v>
       </c>
       <c r="G163" t="n">
-        <v>5.61330718357136</v>
+        <v>8.8191994631141</v>
       </c>
       <c r="H163" t="n">
-        <v>153.022350380431</v>
+        <v>269.745291404476</v>
       </c>
     </row>
     <row r="164">
@@ -5777,22 +5783,22 @@
         <v>333</v>
       </c>
       <c r="C164" t="n">
-        <v>73946</v>
+        <v>136829</v>
       </c>
       <c r="D164" t="n">
-        <v>0.207532167437996</v>
+        <v>0.230921506797581</v>
       </c>
       <c r="E164" t="n">
-        <v>64.22</v>
+        <v>65.84</v>
       </c>
       <c r="F164" t="n">
-        <v>39.5363431297431</v>
+        <v>53.1629671006749</v>
       </c>
       <c r="G164" t="n">
-        <v>5.29890861736741</v>
+        <v>5.61330718357136</v>
       </c>
       <c r="H164" t="n">
-        <v>142.993215796141</v>
+        <v>153.022350380431</v>
       </c>
     </row>
     <row r="165">
@@ -5803,22 +5809,22 @@
         <v>335</v>
       </c>
       <c r="C165" t="n">
-        <v>126259</v>
+        <v>73946</v>
       </c>
       <c r="D165" t="n">
-        <v>0.26978121197425</v>
+        <v>0.207532167437996</v>
       </c>
       <c r="E165" t="n">
-        <v>71.01</v>
+        <v>64.22</v>
       </c>
       <c r="F165" t="n">
-        <v>66.7361851591482</v>
+        <v>39.5363431297431</v>
       </c>
       <c r="G165" t="n">
-        <v>6.75707341181479</v>
+        <v>5.29890861736741</v>
       </c>
       <c r="H165" t="n">
-        <v>165.768111840883</v>
+        <v>142.993215796141</v>
       </c>
     </row>
     <row r="166">
@@ -5829,22 +5835,22 @@
         <v>337</v>
       </c>
       <c r="C166" t="n">
-        <v>81059</v>
+        <v>126259</v>
       </c>
       <c r="D166" t="n">
-        <v>0.281205512249916</v>
+        <v>0.26978121197425</v>
       </c>
       <c r="E166" t="n">
-        <v>71.1</v>
+        <v>71.01</v>
       </c>
       <c r="F166" t="n">
-        <v>73.949644869001</v>
+        <v>66.7361851591482</v>
       </c>
       <c r="G166" t="n">
-        <v>6.29699135205285</v>
+        <v>6.75707341181479</v>
       </c>
       <c r="H166" t="n">
-        <v>182.419127647813</v>
+        <v>165.768111840883</v>
       </c>
     </row>
     <row r="167">
@@ -5855,22 +5861,22 @@
         <v>339</v>
       </c>
       <c r="C167" t="n">
-        <v>69522</v>
+        <v>81059</v>
       </c>
       <c r="D167" t="n">
-        <v>0.243012804442939</v>
+        <v>0.281205512249916</v>
       </c>
       <c r="E167" t="n">
-        <v>69.66</v>
+        <v>71.1</v>
       </c>
       <c r="F167" t="n">
-        <v>64.2171289916629</v>
+        <v>73.949644869001</v>
       </c>
       <c r="G167" t="n">
-        <v>5.41111909998632</v>
+        <v>6.29699135205285</v>
       </c>
       <c r="H167" t="n">
-        <v>152.607427557256</v>
+        <v>182.419127647813</v>
       </c>
     </row>
     <row r="168">
@@ -5881,22 +5887,22 @@
         <v>341</v>
       </c>
       <c r="C168" t="n">
-        <v>48223</v>
+        <v>69522</v>
       </c>
       <c r="D168" t="n">
-        <v>0.254368089781878</v>
+        <v>0.243012804442939</v>
       </c>
       <c r="E168" t="n">
-        <v>68.98</v>
+        <v>69.66</v>
       </c>
       <c r="F168" t="n">
-        <v>57.9576851821104</v>
+        <v>64.2171289916629</v>
       </c>
       <c r="G168" t="n">
-        <v>6.47490026141079</v>
+        <v>5.41111909998632</v>
       </c>
       <c r="H168" t="n">
-        <v>161.707790058707</v>
+        <v>152.607427557256</v>
       </c>
     </row>
     <row r="169">
@@ -5907,22 +5913,22 @@
         <v>343</v>
       </c>
       <c r="C169" t="n">
-        <v>74735</v>
+        <v>48223</v>
       </c>
       <c r="D169" t="n">
-        <v>0.248745644983304</v>
+        <v>0.254368089781878</v>
       </c>
       <c r="E169" t="n">
-        <v>67.25</v>
+        <v>68.98</v>
       </c>
       <c r="F169" t="n">
-        <v>53.065237435162</v>
+        <v>57.9576851821104</v>
       </c>
       <c r="G169" t="n">
-        <v>5.54455295163688</v>
+        <v>6.47490026141079</v>
       </c>
       <c r="H169" t="n">
-        <v>179.028038637774</v>
+        <v>161.707790058707</v>
       </c>
     </row>
     <row r="170">
@@ -5933,22 +5939,22 @@
         <v>345</v>
       </c>
       <c r="C170" t="n">
-        <v>27819</v>
+        <v>74735</v>
       </c>
       <c r="D170" t="n">
-        <v>0.220625969688087</v>
+        <v>0.248745644983304</v>
       </c>
       <c r="E170" t="n">
-        <v>69.12</v>
+        <v>67.25</v>
       </c>
       <c r="F170" t="n">
-        <v>49.6504719773692</v>
+        <v>53.065237435162</v>
       </c>
       <c r="G170" t="n">
-        <v>4.91764336939512</v>
+        <v>5.54455295163688</v>
       </c>
       <c r="H170" t="n">
-        <v>144.036481614652</v>
+        <v>179.028038637774</v>
       </c>
     </row>
     <row r="171">
@@ -5959,22 +5965,22 @@
         <v>347</v>
       </c>
       <c r="C171" t="n">
-        <v>50490</v>
+        <v>27819</v>
       </c>
       <c r="D171" t="n">
-        <v>0.275785193297116</v>
+        <v>0.220625969688087</v>
       </c>
       <c r="E171" t="n">
-        <v>66.91</v>
+        <v>69.12</v>
       </c>
       <c r="F171" t="n">
-        <v>62.1548779679943</v>
+        <v>49.6504719773692</v>
       </c>
       <c r="G171" t="n">
-        <v>6.39866433063048</v>
+        <v>4.91764336939512</v>
       </c>
       <c r="H171" t="n">
-        <v>199.988645697217</v>
+        <v>144.036481614652</v>
       </c>
     </row>
     <row r="172">
@@ -5985,22 +5991,22 @@
         <v>349</v>
       </c>
       <c r="C172" t="n">
-        <v>240776</v>
+        <v>50490</v>
       </c>
       <c r="D172" t="n">
-        <v>0.373834237372576</v>
+        <v>0.275785193297116</v>
       </c>
       <c r="E172" t="n">
-        <v>70.64</v>
+        <v>66.91</v>
       </c>
       <c r="F172" t="n">
-        <v>80.4128882193068</v>
+        <v>62.1548779679943</v>
       </c>
       <c r="G172" t="n">
-        <v>9.11363068002202</v>
+        <v>6.39866433063048</v>
       </c>
       <c r="H172" t="n">
-        <v>298.071976269662</v>
+        <v>199.988645697217</v>
       </c>
     </row>
     <row r="173">
@@ -6011,22 +6017,22 @@
         <v>351</v>
       </c>
       <c r="C173" t="n">
-        <v>62147</v>
+        <v>240776</v>
       </c>
       <c r="D173" t="n">
-        <v>0.244706867147763</v>
+        <v>0.373834237372576</v>
       </c>
       <c r="E173" t="n">
-        <v>68.26</v>
+        <v>70.64</v>
       </c>
       <c r="F173" t="n">
-        <v>53.106111179181</v>
+        <v>80.4128882193068</v>
       </c>
       <c r="G173" t="n">
-        <v>6.06889720429377</v>
+        <v>9.11363068002202</v>
       </c>
       <c r="H173" t="n">
-        <v>160.381714286041</v>
+        <v>298.071976269662</v>
       </c>
     </row>
     <row r="174">
@@ -6037,22 +6043,22 @@
         <v>353</v>
       </c>
       <c r="C174" t="n">
-        <v>47400</v>
+        <v>62147</v>
       </c>
       <c r="D174" t="n">
-        <v>0.260051886651044</v>
+        <v>0.244706867147763</v>
       </c>
       <c r="E174" t="n">
-        <v>71.37</v>
+        <v>68.26</v>
       </c>
       <c r="F174" t="n">
-        <v>62.8076622514119</v>
+        <v>53.106111179181</v>
       </c>
       <c r="G174" t="n">
-        <v>5.58976211739287</v>
+        <v>6.06889720429377</v>
       </c>
       <c r="H174" t="n">
-        <v>172.007072729088</v>
+        <v>160.381714286041</v>
       </c>
     </row>
     <row r="175">
@@ -6063,22 +6069,22 @@
         <v>355</v>
       </c>
       <c r="C175" t="n">
-        <v>115389</v>
+        <v>47400</v>
       </c>
       <c r="D175" t="n">
-        <v>0.284961260712799</v>
+        <v>0.260051886651044</v>
       </c>
       <c r="E175" t="n">
-        <v>73.07</v>
+        <v>71.37</v>
       </c>
       <c r="F175" t="n">
-        <v>40.910926249975</v>
+        <v>62.8076622514119</v>
       </c>
       <c r="G175" t="n">
-        <v>6.87659828974843</v>
+        <v>5.58976211739287</v>
       </c>
       <c r="H175" t="n">
-        <v>221.161401082897</v>
+        <v>172.007072729088</v>
       </c>
     </row>
     <row r="176">
@@ -6089,22 +6095,22 @@
         <v>357</v>
       </c>
       <c r="C176" t="n">
-        <v>49293</v>
+        <v>115389</v>
       </c>
       <c r="D176" t="n">
-        <v>0.26922545905655</v>
+        <v>0.284961260712799</v>
       </c>
       <c r="E176" t="n">
-        <v>70.33</v>
+        <v>73.07</v>
       </c>
       <c r="F176" t="n">
-        <v>29.9866656034302</v>
+        <v>40.910926249975</v>
       </c>
       <c r="G176" t="n">
-        <v>6.34909553640281</v>
+        <v>6.87659828974843</v>
       </c>
       <c r="H176" t="n">
-        <v>240.422678864972</v>
+        <v>221.161401082897</v>
       </c>
     </row>
     <row r="177">
@@ -6115,22 +6121,22 @@
         <v>359</v>
       </c>
       <c r="C177" t="n">
-        <v>33638</v>
+        <v>49293</v>
       </c>
       <c r="D177" t="n">
-        <v>0.209755729353959</v>
+        <v>0.26922545905655</v>
       </c>
       <c r="E177" t="n">
-        <v>70.67</v>
+        <v>70.33</v>
       </c>
       <c r="F177" t="n">
-        <v>25.4960823693149</v>
+        <v>29.9866656034302</v>
       </c>
       <c r="G177" t="n">
-        <v>5.32504772282761</v>
+        <v>6.34909553640281</v>
       </c>
       <c r="H177" t="n">
-        <v>153.796488578211</v>
+        <v>240.422678864972</v>
       </c>
     </row>
     <row r="178">
@@ -6141,22 +6147,22 @@
         <v>361</v>
       </c>
       <c r="C178" t="n">
-        <v>24448</v>
+        <v>33638</v>
       </c>
       <c r="D178" t="n">
-        <v>0.256577420172543</v>
+        <v>0.209755729353959</v>
       </c>
       <c r="E178" t="n">
-        <v>74.69</v>
+        <v>70.67</v>
       </c>
       <c r="F178" t="n">
-        <v>28.8408557733337</v>
+        <v>25.4960823693149</v>
       </c>
       <c r="G178" t="n">
-        <v>6.57724419677171</v>
+        <v>5.32504772282761</v>
       </c>
       <c r="H178" t="n">
-        <v>196.400865615354</v>
+        <v>153.796488578211</v>
       </c>
     </row>
     <row r="179">
@@ -6167,22 +6173,22 @@
         <v>363</v>
       </c>
       <c r="C179" t="n">
-        <v>79075</v>
+        <v>24448</v>
       </c>
       <c r="D179" t="n">
-        <v>0.239362558332256</v>
+        <v>0.256577420172543</v>
       </c>
       <c r="E179" t="n">
-        <v>72.25</v>
+        <v>74.69</v>
       </c>
       <c r="F179" t="n">
-        <v>31.1729661026232</v>
+        <v>28.8408557733337</v>
       </c>
       <c r="G179" t="n">
-        <v>5.57135829588904</v>
+        <v>6.57724419677171</v>
       </c>
       <c r="H179" t="n">
-        <v>184.190519609007</v>
+        <v>196.400865615354</v>
       </c>
     </row>
     <row r="180">
@@ -6193,22 +6199,22 @@
         <v>365</v>
       </c>
       <c r="C180" t="n">
-        <v>50884</v>
+        <v>79075</v>
       </c>
       <c r="D180" t="n">
-        <v>0.300760721235168</v>
+        <v>0.239362558332256</v>
       </c>
       <c r="E180" t="n">
-        <v>71.92</v>
+        <v>72.25</v>
       </c>
       <c r="F180" t="n">
-        <v>36.7506004008691</v>
+        <v>31.1729661026232</v>
       </c>
       <c r="G180" t="n">
-        <v>7.17102977200085</v>
+        <v>5.57135829588904</v>
       </c>
       <c r="H180" t="n">
-        <v>265.01528481334</v>
+        <v>184.190519609007</v>
       </c>
     </row>
     <row r="181">
@@ -6219,22 +6225,22 @@
         <v>367</v>
       </c>
       <c r="C181" t="n">
-        <v>37721</v>
+        <v>50884</v>
       </c>
       <c r="D181" t="n">
-        <v>0.287028150455552</v>
+        <v>0.300760721235168</v>
       </c>
       <c r="E181" t="n">
-        <v>72.34</v>
+        <v>71.92</v>
       </c>
       <c r="F181" t="n">
-        <v>37.5536635826956</v>
+        <v>36.7506004008691</v>
       </c>
       <c r="G181" t="n">
-        <v>6.55316567587498</v>
+        <v>7.17102977200085</v>
       </c>
       <c r="H181" t="n">
-        <v>243.372277359501</v>
+        <v>265.01528481334</v>
       </c>
     </row>
     <row r="182">
@@ -6245,22 +6251,22 @@
         <v>369</v>
       </c>
       <c r="C182" t="n">
-        <v>104882</v>
+        <v>37721</v>
       </c>
       <c r="D182" t="n">
-        <v>0.285143392064208</v>
+        <v>0.287028150455552</v>
       </c>
       <c r="E182" t="n">
-        <v>73.94</v>
+        <v>72.34</v>
       </c>
       <c r="F182" t="n">
-        <v>39.7783112465526</v>
+        <v>37.5536635826956</v>
       </c>
       <c r="G182" t="n">
-        <v>6.47231321405666</v>
+        <v>6.55316567587498</v>
       </c>
       <c r="H182" t="n">
-        <v>228.664121931491</v>
+        <v>243.372277359501</v>
       </c>
     </row>
     <row r="183">
@@ -6271,22 +6277,22 @@
         <v>371</v>
       </c>
       <c r="C183" t="n">
-        <v>161132</v>
+        <v>104882</v>
       </c>
       <c r="D183" t="n">
-        <v>0.380654236847107</v>
+        <v>0.285143392064208</v>
       </c>
       <c r="E183" t="n">
-        <v>72.28</v>
+        <v>73.94</v>
       </c>
       <c r="F183" t="n">
-        <v>61.6045758926291</v>
+        <v>39.7783112465526</v>
       </c>
       <c r="G183" t="n">
-        <v>8.94945366596333</v>
+        <v>6.47231321405666</v>
       </c>
       <c r="H183" t="n">
-        <v>344.801822597238</v>
+        <v>228.664121931491</v>
       </c>
     </row>
     <row r="184">
@@ -6297,22 +6303,22 @@
         <v>373</v>
       </c>
       <c r="C184" t="n">
-        <v>72346</v>
+        <v>161132</v>
       </c>
       <c r="D184" t="n">
-        <v>0.328154522587634</v>
+        <v>0.380654236847107</v>
       </c>
       <c r="E184" t="n">
-        <v>71.8</v>
+        <v>72.28</v>
       </c>
       <c r="F184" t="n">
-        <v>45.6585127927059</v>
+        <v>61.6045758926291</v>
       </c>
       <c r="G184" t="n">
-        <v>7.14059320628411</v>
+        <v>8.94945366596333</v>
       </c>
       <c r="H184" t="n">
-        <v>304.492103980438</v>
+        <v>344.801822597238</v>
       </c>
     </row>
     <row r="185">
@@ -6323,22 +6329,22 @@
         <v>375</v>
       </c>
       <c r="C185" t="n">
-        <v>262731</v>
+        <v>72346</v>
       </c>
       <c r="D185" t="n">
-        <v>0.45493313116536</v>
+        <v>0.328154522587634</v>
       </c>
       <c r="E185" t="n">
-        <v>74.44</v>
+        <v>71.8</v>
       </c>
       <c r="F185" t="n">
-        <v>84.5199901743035</v>
+        <v>45.6585127927059</v>
       </c>
       <c r="G185" t="n">
-        <v>10.6008562653527</v>
+        <v>7.14059320628411</v>
       </c>
       <c r="H185" t="n">
-        <v>424.165559877911</v>
+        <v>304.492103980438</v>
       </c>
     </row>
     <row r="186">
@@ -6349,22 +6355,22 @@
         <v>377</v>
       </c>
       <c r="C186" t="n">
-        <v>8373</v>
+        <v>262731</v>
       </c>
       <c r="D186" t="n">
-        <v>0.282660257322597</v>
+        <v>0.45493313116536</v>
       </c>
       <c r="E186" t="n">
-        <v>70.17</v>
+        <v>74.44</v>
       </c>
       <c r="F186" t="n">
-        <v>64.2110429946019</v>
+        <v>84.5199901743035</v>
       </c>
       <c r="G186" t="n">
-        <v>6.79642483410416</v>
+        <v>10.6008562653527</v>
       </c>
       <c r="H186" t="n">
-        <v>190.56860747655</v>
+        <v>424.165559877911</v>
       </c>
     </row>
     <row r="187">
@@ -6375,22 +6381,22 @@
         <v>379</v>
       </c>
       <c r="C187" t="n">
-        <v>9872</v>
+        <v>8373</v>
       </c>
       <c r="D187" t="n">
-        <v>0.432917910371383</v>
+        <v>0.282660257322597</v>
       </c>
       <c r="E187" t="n">
-        <v>73.15</v>
+        <v>70.17</v>
       </c>
       <c r="F187" t="n">
-        <v>66.9400406643492</v>
+        <v>64.2110429946019</v>
       </c>
       <c r="G187" t="n">
-        <v>10.4335130464022</v>
+        <v>6.79642483410416</v>
       </c>
       <c r="H187" t="n">
-        <v>425.65730932731</v>
+        <v>190.56860747655</v>
       </c>
     </row>
     <row r="188">
@@ -6401,22 +6407,22 @@
         <v>381</v>
       </c>
       <c r="C188" t="n">
-        <v>7805</v>
+        <v>9872</v>
       </c>
       <c r="D188" t="n">
-        <v>0.282631552492073</v>
+        <v>0.432917910371383</v>
       </c>
       <c r="E188" t="n">
-        <v>72.65</v>
+        <v>73.15</v>
       </c>
       <c r="F188" t="n">
-        <v>73.3860247165454</v>
+        <v>66.9400406643492</v>
       </c>
       <c r="G188" t="n">
-        <v>7.66594093729938</v>
+        <v>10.4335130464022</v>
       </c>
       <c r="H188" t="n">
-        <v>162.272873400873</v>
+        <v>425.65730932731</v>
       </c>
     </row>
     <row r="189">
@@ -6427,22 +6433,22 @@
         <v>383</v>
       </c>
       <c r="C189" t="n">
-        <v>142338</v>
+        <v>7805</v>
       </c>
       <c r="D189" t="n">
-        <v>0.422685617221101</v>
+        <v>0.282631552492073</v>
       </c>
       <c r="E189" t="n">
-        <v>75.42</v>
+        <v>72.65</v>
       </c>
       <c r="F189" t="n">
-        <v>59.9059729346409</v>
+        <v>73.3860247165454</v>
       </c>
       <c r="G189" t="n">
-        <v>9.32000504596726</v>
+        <v>7.66594093729938</v>
       </c>
       <c r="H189" t="n">
-        <v>428.294421788608</v>
+        <v>162.272873400873</v>
       </c>
     </row>
     <row r="190">
@@ -6453,22 +6459,22 @@
         <v>385</v>
       </c>
       <c r="C190" t="n">
-        <v>16914</v>
+        <v>142338</v>
       </c>
       <c r="D190" t="n">
-        <v>0.396639069035805</v>
+        <v>0.422685617221101</v>
       </c>
       <c r="E190" t="n">
-        <v>75.45</v>
+        <v>75.42</v>
       </c>
       <c r="F190" t="n">
-        <v>58.0401314587574</v>
+        <v>59.9059729346409</v>
       </c>
       <c r="G190" t="n">
-        <v>7.96195366596393</v>
+        <v>9.32000504596726</v>
       </c>
       <c r="H190" t="n">
-        <v>399.514020897051</v>
+        <v>428.294421788608</v>
       </c>
     </row>
     <row r="191">
@@ -6479,22 +6485,22 @@
         <v>387</v>
       </c>
       <c r="C191" t="n">
-        <v>41054</v>
+        <v>16914</v>
       </c>
       <c r="D191" t="n">
-        <v>0.381784087120589</v>
+        <v>0.396639069035805</v>
       </c>
       <c r="E191" t="n">
-        <v>74.33</v>
+        <v>75.45</v>
       </c>
       <c r="F191" t="n">
-        <v>54.8472254942163</v>
+        <v>58.0401314587574</v>
       </c>
       <c r="G191" t="n">
-        <v>8.43092649240185</v>
+        <v>7.96195366596393</v>
       </c>
       <c r="H191" t="n">
-        <v>364.678223332724</v>
+        <v>399.514020897051</v>
       </c>
     </row>
     <row r="192">
@@ -6505,22 +6511,22 @@
         <v>389</v>
       </c>
       <c r="C192" t="n">
-        <v>333890</v>
+        <v>41054</v>
       </c>
       <c r="D192" t="n">
-        <v>0.377457674727485</v>
+        <v>0.381784087120589</v>
       </c>
       <c r="E192" t="n">
-        <v>71.89</v>
+        <v>74.33</v>
       </c>
       <c r="F192" t="n">
-        <v>61.8934679889527</v>
+        <v>54.8472254942163</v>
       </c>
       <c r="G192" t="n">
-        <v>8.98406415713381</v>
+        <v>8.43092649240185</v>
       </c>
       <c r="H192" t="n">
-        <v>338.130324277848</v>
+        <v>364.678223332724</v>
       </c>
     </row>
     <row r="193">
@@ -6531,22 +6537,22 @@
         <v>391</v>
       </c>
       <c r="C193" t="n">
-        <v>43933</v>
+        <v>333890</v>
       </c>
       <c r="D193" t="n">
-        <v>0.232766032995227</v>
+        <v>0.377457674727485</v>
       </c>
       <c r="E193" t="n">
-        <v>65.41</v>
+        <v>71.89</v>
       </c>
       <c r="F193" t="n">
-        <v>26.8460743742905</v>
+        <v>61.8934679889527</v>
       </c>
       <c r="G193" t="n">
-        <v>6.00614137502453</v>
+        <v>8.98406415713381</v>
       </c>
       <c r="H193" t="n">
-        <v>198.681645862469</v>
+        <v>338.130324277848</v>
       </c>
     </row>
     <row r="194">
@@ -6557,22 +6563,22 @@
         <v>393</v>
       </c>
       <c r="C194" t="n">
-        <v>50590</v>
+        <v>43933</v>
       </c>
       <c r="D194" t="n">
-        <v>0.308483407106506</v>
+        <v>0.232766032995227</v>
       </c>
       <c r="E194" t="n">
-        <v>74.98</v>
+        <v>65.41</v>
       </c>
       <c r="F194" t="n">
-        <v>43.4312812268759</v>
+        <v>26.8460743742905</v>
       </c>
       <c r="G194" t="n">
-        <v>6.81540708351943</v>
+        <v>6.00614137502453</v>
       </c>
       <c r="H194" t="n">
-        <v>256.797734565221</v>
+        <v>198.681645862469</v>
       </c>
     </row>
     <row r="195">
@@ -6583,21 +6589,47 @@
         <v>395</v>
       </c>
       <c r="C195" t="n">
+        <v>50590</v>
+      </c>
+      <c r="D195" t="n">
+        <v>0.308483407106506</v>
+      </c>
+      <c r="E195" t="n">
+        <v>74.98</v>
+      </c>
+      <c r="F195" t="n">
+        <v>43.4312812268759</v>
+      </c>
+      <c r="G195" t="n">
+        <v>6.81540708351943</v>
+      </c>
+      <c r="H195" t="n">
+        <v>256.797734565221</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>396</v>
+      </c>
+      <c r="B196" t="s">
+        <v>397</v>
+      </c>
+      <c r="C196" t="n">
         <v>3746</v>
       </c>
-      <c r="D195" t="n">
+      <c r="D196" t="n">
         <v>0.242792431228478</v>
       </c>
-      <c r="E195" t="n">
+      <c r="E196" t="n">
         <v>69.33</v>
       </c>
-      <c r="F195" t="n">
+      <c r="F196" t="n">
         <v>18.5430807137155</v>
       </c>
-      <c r="G195" t="n">
+      <c r="G196" t="n">
         <v>6.95880027100271</v>
       </c>
-      <c r="H195" t="n">
+      <c r="H196" t="n">
         <v>218.973277542861</v>
       </c>
     </row>
